--- a/src/analysis_examples/circadb/results_lomb/cosinor_10355998_fam124b_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10355998_fam124b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.31826361043092327, 0.4197811897917764]</t>
+          <t>[0.3170878794044963, 0.4209569208182034]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>1.436184504655103e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>1.436184504655103e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.270473905956233</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4209454942736023, 0.4803282115600034]</t>
+          <t>[0.42094629015443397, 0.4803274156791717]</t>
         </is>
       </c>
       <c r="U2" t="n">
